--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Universidade\2º Ano\2semestre\ATD\ATD20212022-Projeto\Projeto-ATD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D78AC-6859-47D9-A1C9-3448F2D3B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A734757-A42A-4CAA-BAFE-88E96E39222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Walk</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>DINAMICAS</t>
+  </si>
+  <si>
+    <t>ESTATICAS</t>
+  </si>
+  <si>
+    <t>TRANSICAO</t>
+  </si>
+  <si>
+    <t>DONT NEED</t>
   </si>
 </sst>
 </file>
@@ -463,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +502,11 @@
       <c r="P1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +547,7 @@
         <v>1.6959</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -573,7 +588,7 @@
         <v>1.6470500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -611,7 +626,7 @@
         <v>2.89005</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>11</v>
       </c>
@@ -626,18 +641,24 @@
         <v>0.93635000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -678,7 +699,7 @@
         <v>0.39605000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -716,7 +737,7 @@
         <v>0.89215</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -754,7 +775,7 @@
         <v>2.7057500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -782,7 +803,7 @@
         <v>0.34955000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -792,8 +813,11 @@
       <c r="M13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -834,7 +858,7 @@
         <v>0.27565000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -875,7 +899,7 @@
         <v>0.27565000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Universidade\2º Ano\2semestre\ATD\ATD20212022-Projeto\Projeto-ATD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A734757-A42A-4CAA-BAFE-88E96E39222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA993E-4DA9-458B-AF6D-91D2A9E3656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Walk</t>
   </si>
@@ -164,8 +164,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,8 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +556,9 @@
         <f>MEDIAN(N2,O2)</f>
         <v>1.6959</v>
       </c>
+      <c r="Q2">
+        <v>1.7729999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -558,8 +571,11 @@
         <v>1.8348</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">MEDIAN(B3,C3)</f>
+        <f t="shared" ref="D3:D8" si="0">MEDIAN(B3,C3)</f>
         <v>1.7483</v>
+      </c>
+      <c r="E3">
+        <v>1.9858</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -584,8 +600,11 @@
         <v>1.8993</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P16" si="2">MEDIAN(N3,O3)</f>
+        <f t="shared" ref="P3:P17" si="2">MEDIAN(N3,O3)</f>
         <v>1.6470500000000001</v>
+      </c>
+      <c r="Q3">
+        <v>3.1768000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -641,6 +660,9 @@
         <v>0.93635000000000002</v>
       </c>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
@@ -654,6 +676,9 @@
       <c r="M7" t="s">
         <v>20</v>
       </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
       <c r="R7" t="s">
         <v>38</v>
       </c>
@@ -666,24 +691,30 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.0935999999999999</v>
+        <v>1.2970999999999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.54679999999999995</v>
+        <f>MEDIAN(B8,C8)</f>
+        <v>0.64854999999999996</v>
+      </c>
+      <c r="E8">
+        <v>4.2550999999999997</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8">
-        <v>2.4255</v>
+        <v>2.3887999999999998</v>
       </c>
       <c r="H8">
-        <v>3.4037999999999999</v>
+        <v>3.4102999999999999</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>2.91465</v>
+        <f>MEDIAN(G8,H8)</f>
+        <v>2.8995499999999996</v>
+      </c>
+      <c r="J8">
+        <v>3.9268000000000001</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
@@ -692,253 +723,299 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.79210000000000003</v>
+        <v>1.0266</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0.39605000000000001</v>
+        <f>MEDIAN(N8,O8)</f>
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.98350000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.73409999999999997</v>
+        <v>7.5769000000000002</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.36704999999999999</v>
+        <f t="shared" ref="D9:D11" si="3">MEDIAN(B9,C9)</f>
+        <v>3.7884500000000001</v>
       </c>
       <c r="G9">
-        <v>4.3292000000000002</v>
+        <v>4.3578999999999999</v>
       </c>
       <c r="H9">
-        <v>5.3879000000000001</v>
+        <v>5.3970000000000002</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>4.8585500000000001</v>
+        <f>MEDIAN(G9,H9)</f>
+        <v>4.8774499999999996</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9">
-        <v>0.16889999999999999</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="O9">
-        <v>1.6153999999999999</v>
+        <v>1.2725</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>0.89215</v>
+        <f>MEDIAN(N9,O9)</f>
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="Q9">
+        <v>3.3237000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.15479999999999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5494</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.35209999999999997</v>
+        <f t="shared" si="3"/>
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.81299999999999994</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10">
-        <v>0.16919999999999999</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="H10">
-        <v>1.2255</v>
+        <v>1.1478999999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0.69735000000000003</v>
+        <v>0.63689999999999991</v>
+      </c>
+      <c r="J10">
+        <v>1.0405</v>
       </c>
       <c r="N10">
-        <v>2.1225000000000001</v>
+        <v>2.2982999999999998</v>
       </c>
       <c r="O10">
-        <v>3.2890000000000001</v>
+        <v>3.3178000000000001</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>2.7057500000000001</v>
+        <f>MEDIAN(N10,O10)</f>
+        <v>2.8080499999999997</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1128</v>
+      </c>
+      <c r="C11">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.77459999999999996</v>
+      </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11">
-        <v>0.1678</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="H11">
-        <v>0.50119999999999998</v>
+        <v>0.4829</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0.33450000000000002</v>
-      </c>
-      <c r="M11" t="s">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="N11">
+        <v>4.4218000000000002</v>
+      </c>
+      <c r="O11">
+        <v>5.8357000000000001</v>
+      </c>
+      <c r="P11">
+        <f>MEDIAN(N11,O11)</f>
+        <v>5.1287500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
         <v>23</v>
       </c>
-      <c r="N11">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0.34955000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>39</v>
+      <c r="N12">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="P12">
+        <f>MEDIAN(N12,O12)</f>
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>2.1198999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>0.1585</v>
-      </c>
-      <c r="C14">
-        <v>1.2713000000000001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.71489999999999998</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14">
-        <v>0.39410000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.83840000000000003</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.61624999999999996</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14">
-        <v>0.23519999999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.31609999999999999</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0.27565000000000001</v>
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.23280000000000001</v>
+        <v>0.15670000000000001</v>
       </c>
       <c r="C15">
-        <v>0.3322</v>
+        <v>1.2391000000000001</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.28249999999999997</v>
+        <f>MEDIAN(B15,C15)</f>
+        <v>0.69789999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.90939999999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15">
-        <v>0.2263</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="H15">
-        <v>0.439</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.33265</v>
+        <f>MEDIAN(G15,H15)</f>
+        <v>0.61624999999999996</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15">
-        <v>0.23519999999999999</v>
+        <v>0.2319</v>
       </c>
       <c r="O15">
-        <v>0.31609999999999999</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.27565000000000001</v>
+        <v>0.27559999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.17080000000000001</v>
+        <v>0.23469999999999999</v>
       </c>
       <c r="C16">
-        <v>0.60599999999999998</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.38839999999999997</v>
+        <f>MEDIAN(B16,C16)</f>
+        <v>0.28225</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>0.3155</v>
+        <v>0.18659999999999999</v>
       </c>
       <c r="H16">
-        <v>0.59389999999999998</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0.45469999999999999</v>
+        <f>MEDIAN(G16,H16)</f>
+        <v>0.30635000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16">
-        <v>0.2442</v>
+        <v>0.24179999999999999</v>
       </c>
       <c r="O16">
-        <v>0.32340000000000002</v>
+        <v>0.32690000000000002</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
+        <v>0.28434999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D17">
+        <f>MEDIAN(B17,C17)</f>
+        <v>0.45330000000000004</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="I17">
+        <f>MEDIAN(G17,H17)</f>
+        <v>0.45474999999999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
         <v>0.2838</v>
       </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res.xlsx
+++ b/res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Universidade\2º Ano\2semestre\ATD\ATD20212022-Projeto\Projeto-ATD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA993E-4DA9-458B-AF6D-91D2A9E3656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF6ACBC-8210-41D8-A7DA-17BCEF62EDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="2595" windowWidth="20295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Walk</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>TRANSICAO</t>
-  </si>
-  <si>
-    <t>DONT NEED</t>
   </si>
 </sst>
 </file>
@@ -487,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +568,7 @@
         <v>1.8348</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">MEDIAN(B3,C3)</f>
+        <f t="shared" ref="D3:D4" si="0">MEDIAN(B3,C3)</f>
         <v>1.7483</v>
       </c>
       <c r="E3">
@@ -587,7 +584,7 @@
         <v>1.7253000000000001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I16" si="1">MEDIAN(G3,H3)</f>
+        <f t="shared" ref="I3:I11" si="1">MEDIAN(G3,H3)</f>
         <v>1.4917500000000001</v>
       </c>
       <c r="M3" t="s">
@@ -670,14 +667,8 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
       <c r="M7" t="s">
         <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>40</v>
       </c>
       <c r="R7" t="s">
         <v>38</v>
